--- a/GANTT/Team21Project2 GANTT .xlsx
+++ b/GANTT/Team21Project2 GANTT .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\团队项目\PublicFiles\GANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1178F1-C045-46C2-A58E-AA61204F7D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BDABC8-161C-4AFB-99EB-DD57832B80E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Weeks</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Library front page and administration Center</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -205,6 +201,10 @@
   </si>
   <si>
     <t>Search interface</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEEKS</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1034,7 @@
   <dimension ref="B1:BO14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
@@ -1352,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         <v>15</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1393,19 +1393,19 @@
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
         <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6">
         <v>7</v>
       </c>
       <c r="F8" s="6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
       </c>
       <c r="F9" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1453,19 +1453,19 @@
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
       </c>
       <c r="F10" s="6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6">
         <v>11</v>
       </c>
       <c r="F11" s="6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -1500,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E12" s="6">
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -1514,19 +1514,19 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6">
         <v>15</v>
       </c>
       <c r="D13" s="6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E13" s="6">
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
         <v>17</v>
       </c>
       <c r="F14" s="6">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
